--- a/results/hindenburg_omen/sp500_index_results.xlsx
+++ b/results/hindenburg_omen/sp500_index_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -3218,13 +3218,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3251,13 +3257,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3272,16 +3284,103 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="diamond"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -3306,13 +3405,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3407,12 +3543,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="450354336"/>
-        <c:axId val="450355904"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="343733840"/>
+        <c:axId val="343734232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="450354336"/>
+        <c:axId val="343733840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,11 +3561,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3442,9 +3579,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3455,7 +3591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450355904"/>
+        <c:crossAx val="343734232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3463,7 +3599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450355904"/>
+        <c:axId val="343734232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,9 +3609,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3501,9 +3637,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3514,7 +3649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="450354336"/>
+        <c:crossAx val="343733840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3531,17 +3666,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3564,8 +3710,8 @@
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -3614,35 +3760,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3650,26 +3794,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -3678,9 +3830,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3699,14 +3850,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3715,20 +3858,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3737,13 +3880,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3755,10 +3898,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3767,16 +3910,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -3794,21 +3938,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3827,14 +3968,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3846,14 +3986,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3867,9 +4007,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3883,12 +4022,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3900,9 +4033,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3917,14 +4050,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3936,14 +4068,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3955,14 +4087,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3971,14 +4102,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3986,7 +4116,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3999,11 +4129,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -4011,14 +4151,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4030,12 +4170,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4051,7 +4198,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -4060,9 +4206,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4078,14 +4223,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4094,9 +4238,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4108,12 +4251,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10256,7 +10393,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -10702,8 +10839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28368,7 +28505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
